--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="182">
   <si>
     <t>#</t>
   </si>
@@ -530,12 +530,6 @@
 Equal(Attribution($), Expression($))   ==&gt;   Expression($)
 Equal(Attribution($), Expression($))   ==&gt;    Expression($)
 Equal(Attribution($), Attribution($))   ==&gt;    Expression($)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会在logic中出现，所有的Find都会转化为Target
-Find(Attribution($))   ==&gt;    Find(Expression($))
-Find(Relation($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -832,12 +826,22 @@
     <t>多边形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>不会在logic中出现，所有的Find都会转化为Target
+Find(Attribution($))   ==&gt;    Find(Expression($))
+Find(Relation($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射线?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +898,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -978,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,6 +1037,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,19 +1067,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,7 +1353,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1351,12 +1366,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1392,9 +1407,11 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1404,10 +1421,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1418,10 +1435,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1435,7 +1452,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1461,7 +1478,7 @@
         <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,10 +1489,10 @@
         <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,10 +1503,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1500,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>88</v>
@@ -1514,7 +1531,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1529,7 +1546,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1540,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>89</v>
@@ -1551,10 +1568,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>89</v>
@@ -1568,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1592,7 +1609,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1601,13 +1618,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1618,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1627,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -1644,17 +1661,17 @@
         <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1692,10 +1709,10 @@
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1723,7 +1740,7 @@
         <v>118</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1737,7 +1754,7 @@
         <v>116</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1751,7 +1768,7 @@
         <v>120</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,12 +1784,12 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1801,7 +1818,7 @@
         <v>96</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1956,7 +1973,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>97</v>
@@ -1970,7 +1987,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>66</v>
@@ -1996,10 +2013,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2010,7 +2027,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2081,12 +2098,12 @@
       <c r="B62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -2139,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2177,12 +2194,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="F1" s="15" t="s">
         <v>99</v>
       </c>
@@ -2277,159 +2294,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23" t="s">
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="201">
   <si>
     <t>#</t>
   </si>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Point(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线</t>
   </si>
   <si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相交的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直角三角形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.代数表达式(Expression)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rectangle(ABCD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菱形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,14 +250,6 @@
   </si>
   <si>
     <t>内切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circumcenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parallel(Line($),Line($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Expression("a+b=c")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,74 +271,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shape($)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle(O)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sector(OAB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quadrilateral(ABCD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Midpoint(Point($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centroid(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orthocenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Perpendicular(Point($),Line($),Line($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PerpendicularBisector(Point($),Line($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intersect(Point($),Line($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BisectsAngle(Line($),Angle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Contain(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CircumscribedToTriangle(Circle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InscribedInTriangle(Circle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Congruent(Triangle($),Triangle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Similar(Triangle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认角B和角C是相等的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,21 +296,6 @@
   </si>
   <si>
     <t>n≥5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radius(Arc($))
-Radius(Circle($))
-Radius(Sector($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length(Line($))
-Length(Arc($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Median(Line($),Triangle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,12 +307,6 @@
   <si>
     <t>Disjoint(Line($),Circle($))
 Disjoint(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointOn(Point($),Line($))
-PointOn(Point($),Arc($))
-PointOn(Point($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,34 +402,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Diameter(Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在logic中定义为
 RadiusOfArc(Arc(AB))
 RadiusOfCircle(Circle(O))
 RadiusOfSector(Sector(OAB))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area(Triangle(ABC))
-Area(Circle(O))
-Area(Sector(OAB))
-Area(Quadrilateral(ABCD))
-Area(Polygon($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会在logic中出现，所有的Equal最终都会转化为Expression的形式
-Equal(Attribution($), Expression($))   ==&gt;   Expression($)
-Equal(Attribution($), Expression($))   ==&gt;    Expression($)
-Equal(Attribution($), Attribution($))   ==&gt;    Expression($)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Degree(Angle(ABC))
-Degree(Sector(OAB))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,75 +438,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Angle(ABC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line(AB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightTriangle(ABC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegularTriangle(ABC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多边形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegularPolygon($)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等腰梯形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsoscelesTriangle(ABC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsoscelesTrapezoid(ABCD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trapezoid(ABCD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parallelogram(ABCD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等临边四边形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kite(ABCD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rhombus(ABCD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Square(ABCD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任意不规则/组合图形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triangle(ABC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arc(AB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,28 +513,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tangent(Point($), Line($),Circle($))
-Tangent(Point($), Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intersect(Point($), Point($), Line($),Circle($))
-Intersect(Point($), Point($), Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InternallyTangent(Point($),Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在logic中细分为
 HeightOfTriangle(Line($),Triangle($))
 HeightOfTrapezoid(Line($),Trapezoid($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height(Line($),Triangle($))
-Height(Line($),Trapezoid($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -827,13 +623,294 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>射线?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会在logic中出现，所有的Equal最终都会转化为Equation的形式
+Equal(Attribution($), Equation($))   ==&gt;   Equation($)
+Equal(Attribution($), Equation($))   ==&gt;    Equation($)
+Equal(Attribution($), Attribution($))   ==&gt;    Equation($)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不会在logic中出现，所有的Find都会转化为Target
-Find(Attribution($))   ==&gt;    Find(Expression($))
+Find(Attribution($))   ==&gt;    Find(Equation($))
 Find(Relation($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>射线?</t>
+    <t>和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mul(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Div(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tan(Var)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin(Var)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tangent(Point($), Line($),Circle($))
+Tangent(Point($), Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line(AB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angle(ABC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arc(AB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shape($)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle(O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector(OAB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle(ABC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightTriangle(ABC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsoscelesTriangle(ABC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegularTriangle(ABC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trapezoid(ABCD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsoscelesTrapezoid(ABCD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallelogram(ABCD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rectangle(ABCD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhombus(ABCD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kite(ABCD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Square(ABCD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegularPolygon($)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midpoint(Point($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumcenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centroid(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthocenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel(Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median(Line($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contain(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CircumscribedToTriangle(Circle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InscribedInTriangle(Circle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similar(Triangle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerpendicularBisector(Point($),Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternallyTangent(Point($),Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersect(Point($),Line($),Line($))
+Intersect(Point($), Point($), Line($),Circle($))
+Intersect(Point($), Point($), Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height(Line($),Triangle($))
+Height(Line($),Trapezoid($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"expression"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length(Line($))
+Length(Arc($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree(Angle(ABC))
+Degree(Sector(OAB))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius(Arc($))
+Radius(Circle($))
+Radius(Sector($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diameter(Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area(Triangle(ABC))
+Area(Circle(O))
+Area(Sector(OAB))
+Area(Quadrilateral(ABCD))
+Area(Polygon($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cos(Var)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum(Var1,Var2,...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average(Var1,Var2,...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointOn(Point($),Line($))
+PointOn(Point($),Arc($))
+PointOn(Point($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -949,48 +1026,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,9 +1068,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,23 +1089,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1398,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1395,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1404,13 +1435,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>181</v>
+        <v>152</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1418,13 +1449,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1432,13 +1463,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1446,13 +1477,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1460,10 +1491,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1472,13 +1503,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,13 +1517,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1500,13 +1531,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,13 +1545,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,10 +1559,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1540,13 +1571,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1554,13 +1585,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1568,13 +1599,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1582,10 +1613,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1594,10 +1625,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1606,10 +1637,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1618,13 +1649,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1632,10 +1663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1644,13 +1675,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,16 +1689,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -1678,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1692,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1706,13 +1737,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1720,13 +1751,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
@@ -1734,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1748,13 +1779,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1762,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1785,7 +1816,7 @@
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -1808,355 +1839,475 @@
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>1</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>2</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>11</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>4</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C49" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>12</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>5</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>6</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="C50" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <v>13</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>7</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>8</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="C51" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>14</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>9</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>10</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>11</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>12</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>13</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="B52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+        <v>184</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <v>16</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>156</v>
-      </c>
+      <c r="C54" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="6">
         <v>17</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>155</v>
+      <c r="B55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="6">
         <v>18</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="3"/>
+      <c r="B56" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="6">
         <v>19</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="6">
         <v>20</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="3"/>
+      <c r="B58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="6">
         <v>21</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>22</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="6"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>180</v>
+        <v>137</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>8</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>9</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>10</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>11</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>12</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="3">
+        <v>123</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>13</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>14</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +2315,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2182,88 +2333,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="14"/>
-    <col min="6" max="6" width="10.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="7.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="10.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>101</v>
+      <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="14">
         <v>-1</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-1</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>102</v>
+      <c r="H2" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="F3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="14">
         <v>-2</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>113</v>
+      <c r="H3" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="F4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="14">
         <v>-3</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>105</v>
+      <c r="H4" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>107</v>
+      <c r="F5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2294,159 +2445,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="17"/>
+      <c r="A9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="202">
   <si>
     <t>#</t>
   </si>
@@ -911,6 +911,10 @@
     <t>PointOn(Point($),Line($))
 PointOn(Point($),Arc($))
 PointOn(Point($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Literal templates</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,14 +1096,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1383,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1397,12 +1401,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1697,12 +1701,12 @@
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1815,12 +1819,12 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -2066,7 +2070,7 @@
       <c r="A56" s="6">
         <v>18</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -2078,7 +2082,7 @@
       <c r="A57" s="6">
         <v>19</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2117,12 +2121,12 @@
       <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -2345,12 +2349,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="F1" s="14" t="s">
         <v>74</v>
       </c>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -253,12 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在logic中细分为
-IntersectLineCircle(Line($),Circle($))
-IntersectCircleCircle(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,23 +290,6 @@
   </si>
   <si>
     <t>n≥5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
-DisjointLineCircle(Line($),Circle($))
-DisjointCircleCircle(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disjoint(Line($),Circle($))
-Disjoint(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
-TangentLineCircle(Line($),Circle($))
-TangentCircleCircle(Circle($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,12 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在logic中细分为
-HeightOfTriangle(Line($),Triangle($))
-HeightOfTrapezoid(Line($),Trapezoid($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -829,18 +800,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Intersect(Point($),Line($),Line($))
-Intersect(Point($), Point($), Line($),Circle($))
-Intersect(Point($), Point($), Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height(Line($),Triangle($))
-Height(Line($),Trapezoid($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -908,13 +868,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Literal templates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height(Line($),Triangle($))
+Height(Line($),Trapezoid($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+DisjointLineCircle(Line($),Circle($))
+DisjointCircleCircle(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PointOn(Point($),Line($))
 PointOn(Point($),Arc($))
 PointOn(Point($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Literal templates</t>
+    <t>Disjoint(Line($),Circle($))
+Disjoint(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+IntersectLineLine(Point($),Line($),Circle($))
+IntersectLineCircle(Point($),Point($),Line($),Circle($))
+IntersectCircleCircle(Point($),Point($),Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+TangentLineCircle(Point($),Line($),Circle($))
+TangentCircleCircle(Point($),Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersect(Point($),Line($),Line($))
+Intersect(Point($), Point($), Line($),Circle($))
+Intersect(Point($), Point($), Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+HeightOfTriangle(Line($),Triangle($))
+HeightOfTrapezoid(Line($),Trapezoid($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,21 +1389,21 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="83.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="95.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1430,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1442,10 +1443,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,10 +1457,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1470,10 +1471,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1484,10 +1485,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1498,7 +1499,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1510,10 +1511,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1538,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1552,10 +1553,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1566,7 +1567,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1578,10 +1579,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1592,10 +1593,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1603,13 +1604,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1620,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1632,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1644,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1653,13 +1654,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1670,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1679,13 +1680,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,7 +1697,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -1730,10 +1731,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1744,10 +1745,10 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1758,10 +1759,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
@@ -1772,10 +1773,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1786,10 +1787,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1800,10 +1801,10 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1835,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1850,10 +1851,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1865,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1878,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1892,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1906,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1920,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1934,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1946,7 +1947,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -1958,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -1970,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -1982,10 +1983,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1996,13 +1997,13 @@
         <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>13</v>
       </c>
@@ -2010,10 +2011,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,7 +2025,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2033,13 +2034,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2050,7 +2051,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2062,7 +2063,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2074,7 +2075,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2086,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2098,7 +2099,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2110,7 +2111,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2147,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -2159,10 +2160,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -2171,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -2183,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -2195,10 +2196,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -2207,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -2219,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -2231,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -2243,10 +2244,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -2255,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -2267,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D74" s="3"/>
     </row>
@@ -2279,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C75" s="3">
         <v>123</v>
@@ -2291,13 +2292,13 @@
         <v>13</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="D76" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2305,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2350,33 +2351,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="F1" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F2" s="14">
         <v>-1</v>
@@ -2385,40 +2386,40 @@
         <v>-1</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" s="14">
         <v>-3</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2454,25 +2455,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
@@ -2481,47 +2482,47 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2534,7 +2535,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2554,17 +2555,17 @@
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2577,7 +2578,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2586,13 +2587,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -273,14 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BisectsAngle(Line($),Angle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congruent(Triangle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认角B和角C是相等的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,58 +740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Midpoint(Point($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circumcenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centroid(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orthocenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parallel(Line($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Median(Line($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contain(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CircumscribedToTriangle(Circle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InscribedInTriangle(Circle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similar(Triangle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerpendicularBisector(Point($),Line($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InternallyTangent(Point($),Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,45 +817,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PointOn(Point($),Line($))
+PointOn(Point($),Arc($))
+PointOn(Point($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disjoint(Line($),Circle($))
+Disjoint(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersect(Point($),Line($),Line($))
+Intersect(Point($), Point($), Line($),Circle($))
+Intersect(Point($), Point($), Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+HeightOfTriangle(Line($),Triangle($))
+HeightOfTrapezoid(Line($),Trapezoid($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midpoint(Point($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumcenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centroid(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthocenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel(Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerpendicularBisector(Point($),Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BisectsAngle(Line($),Angle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在logic中细分为
 DisjointLineCircle(Line($),Circle($))
 DisjointCircleCircle(Circle($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PointOn(Point($),Line($))
-PointOn(Point($),Arc($))
-PointOn(Point($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disjoint(Line($),Circle($))
-Disjoint(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
-IntersectLineLine(Point($),Line($),Circle($))
-IntersectLineCircle(Point($),Point($),Line($),Circle($))
-IntersectCircleCircle(Point($),Point($),Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在logic中细分为
 TangentLineCircle(Point($),Line($),Circle($))
 TangentCircleCircle(Point($),Circle($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Intersect(Point($),Line($),Line($))
-Intersect(Point($), Point($), Line($),Circle($))
-Intersect(Point($), Point($), Circle($),Circle($))</t>
+    <t>Median(Line($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternallyTangent(Point($),Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contain(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CircumscribedToTriangle(Circle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InscribedInTriangle(Circle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congruent(Triangle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similar(Triangle($),Triangle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在logic中细分为
-HeightOfTriangle(Line($),Triangle($))
-HeightOfTrapezoid(Line($),Trapezoid($))</t>
+IntersectLineLine(Point($),Line($),Line($))
+IntersectLineCircle(Point($),Point($),Line($),Circle($))
+IntersectCircleCircle(Point($),Point($),Circle($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1403,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1431,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1443,10 +1443,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,10 +1457,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1471,10 +1471,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,10 +1485,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1511,10 +1511,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1522,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1582,7 +1582,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,10 +1593,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,13 +1604,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1633,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1645,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1654,13 +1654,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1671,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1680,13 +1680,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,7 +1697,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -1731,10 +1731,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1745,10 +1745,10 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1759,10 +1759,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
@@ -1773,10 +1773,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1787,10 +1787,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1801,10 +1801,10 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1851,10 +1851,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1866,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1879,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1921,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1935,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1959,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -1971,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -1983,10 +1983,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1997,10 +1997,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -2011,10 +2011,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2034,13 +2034,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2051,7 +2051,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2063,7 +2063,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2075,7 +2075,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2099,7 +2099,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2111,7 +2111,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2148,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -2160,10 +2160,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -2172,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -2184,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -2196,10 +2196,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -2208,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -2220,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -2244,10 +2244,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -2256,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -2268,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D74" s="3"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C75" s="3">
         <v>123</v>
@@ -2298,7 +2298,7 @@
         <v>60</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2306,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2351,33 +2351,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="F1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="F2" s="14">
         <v>-1</v>
@@ -2386,40 +2386,40 @@
         <v>-1</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="14">
         <v>-3</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2455,25 +2455,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
@@ -2482,47 +2482,47 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2555,17 +2555,17 @@
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2587,13 +2587,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -309,22 +309,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求解代数表达式解出来的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>≥0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由定理推导出来的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件的构成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +330,6 @@
   </si>
   <si>
     <t>theorem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由高级条件扩展出的低级条件(定义型定理的实现)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -834,12 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在logic中细分为
-HeightOfTriangle(Line($),Triangle($))
-HeightOfTrapezoid(Line($),Trapezoid($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Midpoint(Point($),Line($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -916,6 +894,28 @@
 IntersectLineLine(Point($),Line($),Line($))
 IntersectLineCircle(Point($),Point($),Line($),Circle($))
 IntersectCircleCircle(Point($),Point($),Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+HeightTriangle(Line($),Triangle($))
+HeightTrapezoid(Line($),Trapezoid($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由高级条件扩展出的低级条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级条件序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由位置关系推导出来的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由代数关系推导出来的条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,6 +1099,9 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1388,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1402,12 +1405,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1431,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1443,10 +1446,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,10 +1460,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1471,10 +1474,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,10 +1488,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1499,7 +1502,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1511,10 +1514,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1522,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,10 +1542,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -1567,7 +1570,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1582,7 +1585,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>65</v>
@@ -1604,10 +1607,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>65</v>
@@ -1621,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1633,7 +1636,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1645,7 +1648,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1654,13 +1657,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1671,7 +1674,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1680,7 +1683,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -1697,17 +1700,17 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1731,10 +1734,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1745,10 +1748,10 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1759,10 +1762,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
@@ -1773,10 +1776,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1787,10 +1790,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1801,10 +1804,10 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1820,12 +1823,12 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1851,10 +1854,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1866,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1879,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1893,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1907,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1921,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1935,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1959,7 +1962,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -1971,7 +1974,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -1983,10 +1986,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1997,10 +2000,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -2011,10 +2014,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2025,7 +2028,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2034,13 +2037,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2051,7 +2054,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2063,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2075,7 +2078,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2087,7 +2090,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2099,7 +2102,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2111,7 +2114,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2122,12 +2125,12 @@
       <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -2148,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -2160,10 +2163,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -2172,10 +2175,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -2184,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -2196,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -2208,10 +2211,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -2220,10 +2223,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -2232,10 +2235,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -2244,10 +2247,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -2256,10 +2259,10 @@
         <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -2268,10 +2271,10 @@
         <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D74" s="3"/>
     </row>
@@ -2280,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C75" s="3">
         <v>123</v>
@@ -2298,7 +2301,7 @@
         <v>60</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2312,7 +2315,7 @@
         <v>61</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2332,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2343,19 +2346,19 @@
     <col min="3" max="3" width="10.875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="13"/>
-    <col min="6" max="6" width="10.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="F1" s="14" t="s">
         <v>68</v>
       </c>
@@ -2368,16 +2371,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="F2" s="14">
         <v>-1</v>
@@ -2391,35 +2394,35 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="14">
+      <c r="H4" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="14">
         <v>-3</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2455,25 +2458,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
@@ -2482,47 +2485,47 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2555,17 +2558,17 @@
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2587,13 +2590,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="203">
   <si>
     <t>#</t>
   </si>
@@ -318,10 +318,6 @@
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -728,10 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"expression"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -907,15 +899,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高级条件序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由位置关系推导出来的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由代数关系推导出来的条件</t>
+    <t>由定理推导出来的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression("text")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没编程实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1391,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1410,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1434,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1446,10 +1450,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1460,10 +1464,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1474,10 +1478,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1488,10 +1492,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1502,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1514,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,13 +1529,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,10 +1546,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1556,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -1570,7 +1574,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1585,7 +1589,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1596,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>65</v>
@@ -1607,10 +1611,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>65</v>
@@ -1624,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1636,7 +1640,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1648,7 +1652,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1657,13 +1661,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1674,7 +1678,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1683,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -1700,7 +1704,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -1734,10 +1738,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1748,10 +1752,10 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1762,10 +1766,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
@@ -1776,10 +1780,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1790,10 +1794,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1804,10 +1808,10 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1839,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1854,10 +1858,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1869,7 +1873,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1882,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1896,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1910,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1924,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1938,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1962,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -1974,7 +1978,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -1986,10 +1990,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2000,10 +2004,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -2014,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2028,7 +2032,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2037,13 +2041,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2054,7 +2058,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2066,7 +2070,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2078,7 +2082,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2090,7 +2094,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2102,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2114,7 +2118,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2151,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -2163,10 +2167,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -2175,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -2187,10 +2191,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -2199,10 +2203,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -2211,10 +2215,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -2223,10 +2227,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -2235,10 +2239,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -2247,10 +2251,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -2259,10 +2263,10 @@
         <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -2271,22 +2275,24 @@
         <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="3">
-        <v>123</v>
+        <v>160</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D75" s="3"/>
     </row>
@@ -2301,7 +2307,7 @@
         <v>60</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2315,7 +2321,7 @@
         <v>61</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2374,13 +2380,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="F2" s="14">
         <v>-1</v>
@@ -2394,13 +2400,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2411,18 +2417,7 @@
         <v>73</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="14">
-        <v>-3</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2458,25 +2453,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
@@ -2485,47 +2480,47 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2538,7 +2533,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2558,17 +2553,17 @@
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2581,7 +2576,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2590,13 +2585,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
   <si>
     <t>#</t>
   </si>
@@ -920,6 +920,18 @@
   </si>
   <si>
     <t>还没编程实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,6 +1124,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,7 +1411,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2214,10 +2229,10 @@
       <c r="A69" s="3">
         <v>6</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D69" s="3"/>
@@ -2226,10 +2241,10 @@
       <c r="A70" s="3">
         <v>7</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="20" t="s">
         <v>170</v>
       </c>
       <c r="D70" s="3"/>
@@ -2244,7 +2259,9 @@
       <c r="C71" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
@@ -2256,7 +2273,9 @@
       <c r="C72" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
@@ -2268,7 +2287,9 @@
       <c r="C73" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -2280,7 +2301,7 @@
       <c r="C74" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="20" t="s">
         <v>202</v>
       </c>
     </row>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -793,12 +793,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PointOn(Point($),Line($))
-PointOn(Point($),Arc($))
-PointOn(Point($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Disjoint(Line($),Circle($))
 Disjoint(Circle($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,6 +926,12 @@
   </si>
   <si>
     <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointOn(Point($),Line($))
+PointOn(Point($),Arc($))
+PointOn(Point($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,14 +1119,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1424,12 +1424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1724,12 +1724,12 @@
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1842,12 +1842,12 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>98</v>
@@ -1888,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1901,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1929,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1943,7 +1943,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1957,7 +1957,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1981,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -1993,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -2005,10 +2005,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2022,7 +2022,7 @@
         <v>138</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -2033,10 +2033,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2062,7 +2062,7 @@
         <v>173</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2085,7 +2085,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2097,7 +2097,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2109,7 +2109,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2121,7 +2121,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2133,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2144,12 +2144,12 @@
       <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -2229,7 +2229,7 @@
       <c r="A69" s="3">
         <v>6</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C69" s="20" t="s">
@@ -2241,7 +2241,7 @@
       <c r="A70" s="3">
         <v>7</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -2260,7 +2260,7 @@
         <v>137</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
         <v>168</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2288,7 +2288,7 @@
         <v>136</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,10 +2299,10 @@
         <v>159</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,7 +2313,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="3"/>
     </row>
@@ -2380,12 +2380,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="F1" s="14" t="s">
         <v>68</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>76</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>73</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -889,10 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由高级条件扩展出的低级条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由定理推导出来的条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,6 +928,10 @@
     <t>PointOn(Point($),Line($))
 PointOn(Point($),Arc($))
 PointOn(Point($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由其他条件扩展出的条件，没应用定理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1410,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -1873,7 +1873,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>98</v>
@@ -2260,7 +2260,7 @@
         <v>137</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
         <v>168</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2288,7 +2288,7 @@
         <v>136</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,10 +2299,10 @@
         <v>159</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,7 +2313,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="3"/>
     </row>
@@ -2362,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2401,7 +2401,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>76</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>73</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="207">
   <si>
     <t>#</t>
   </si>
@@ -306,10 +306,6 @@
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>≥0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -889,14 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由定理推导出来的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,6 +920,22 @@
   </si>
   <si>
     <t>由其他条件扩展出的条件，没应用定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由定理推导出来的条件，前提是位置关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由定理推导出来的条件，前提是解代数方程得到的（后面可以设计求前提的方法，这里先默认-3）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,11 +1126,20 @@
     <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,12 +1437,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1453,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1465,10 +1478,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,10 +1492,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,10 +1506,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,10 +1520,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,7 +1534,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1533,10 +1546,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1544,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1561,10 +1574,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1575,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -1589,7 +1602,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1604,7 +1617,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1615,7 +1628,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>65</v>
@@ -1626,10 +1639,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>65</v>
@@ -1643,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1655,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1667,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1676,13 +1689,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1702,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -1719,17 +1732,17 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1753,10 +1766,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1767,10 +1780,10 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1781,10 +1794,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
@@ -1795,10 +1808,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1809,10 +1822,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1823,10 +1836,10 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1842,12 +1855,12 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1858,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1873,10 +1886,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1888,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1901,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1915,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1929,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1943,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1957,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1981,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -1993,7 +2006,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -2005,10 +2018,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2019,10 +2032,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -2033,10 +2046,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2047,7 +2060,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2056,13 +2069,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2073,7 +2086,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2085,7 +2098,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2097,7 +2110,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2109,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2121,7 +2134,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2133,7 +2146,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2144,12 +2157,12 @@
       <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -2170,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -2182,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -2194,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -2206,10 +2219,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -2218,10 +2231,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -2230,10 +2243,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -2242,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -2254,13 +2267,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2268,13 +2281,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2282,13 +2295,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2296,13 +2309,13 @@
         <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2310,10 +2323,10 @@
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D75" s="3"/>
     </row>
@@ -2328,7 +2341,7 @@
         <v>60</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2342,7 +2355,7 @@
         <v>61</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2360,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2375,39 +2388,39 @@
     <col min="5" max="5" width="9" style="13"/>
     <col min="6" max="6" width="18.25" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.375" style="28" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="F1" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="F2" s="14">
         <v>-1</v>
@@ -2415,19 +2428,19 @@
       <c r="G2" s="14">
         <v>-1</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>205</v>
+      <c r="H3" s="27" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2435,10 +2448,21 @@
         <v>72</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>195</v>
+        <v>204</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="F5" s="24">
+        <v>-3</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2447,6 +2471,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2474,25 +2499,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>102</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
@@ -2501,47 +2526,47 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2554,7 +2579,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2574,17 +2599,17 @@
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2597,7 +2622,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2606,13 +2631,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -411,33 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>从角开始规定</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只有逆时针的表示才是合法的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，ABC≠CBA</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认角B是直角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>射线?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,6 +905,14 @@
   </si>
   <si>
     <t>由定理推导出来的条件，前提是解代数方程得到的（后面可以设计求前提的方法，这里先默认-3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chord(Line($),Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,17 +1106,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1437,12 +1414,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1466,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1478,11 +1455,9 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>120</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1492,11 +1467,9 @@
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1506,7 +1479,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>90</v>
@@ -1520,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>89</v>
@@ -1534,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1546,7 +1519,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>91</v>
@@ -1560,7 +1533,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>92</v>
@@ -1574,10 +1547,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1588,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -1602,7 +1575,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1617,7 +1590,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1628,7 +1601,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>65</v>
@@ -1642,7 +1615,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>65</v>
@@ -1656,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1668,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1680,7 +1653,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1692,10 +1665,10 @@
         <v>88</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1706,7 +1679,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1732,17 +1705,17 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1766,7 +1739,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>80</v>
@@ -1780,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>82</v>
@@ -1794,7 +1767,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>81</v>
@@ -1808,7 +1781,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>83</v>
@@ -1836,7 +1809,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>85</v>
@@ -1855,12 +1828,12 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1871,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1886,10 +1859,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1901,7 +1874,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1914,7 +1887,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1928,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1942,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1956,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1970,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1994,7 +1967,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -2006,7 +1979,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -2018,10 +1991,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2032,10 +2005,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -2046,10 +2019,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2069,13 +2042,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2086,7 +2059,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2098,7 +2071,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2110,7 +2083,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2122,7 +2095,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2134,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2146,216 +2119,228 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
+      <c r="A60" s="6">
+        <v>22</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>6</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>168</v>
+        <v>5</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>8</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>198</v>
+        <v>165</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>11</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>197</v>
+        <v>10</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
+        <v>11</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>12</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="B76" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>13</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="D77" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>14</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>130</v>
+      <c r="D78" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2348,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2375,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2388,24 +2373,24 @@
     <col min="5" max="5" width="9" style="13"/>
     <col min="6" max="6" width="18.25" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="64.375" style="26" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="F1" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2414,7 +2399,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>75</v>
@@ -2428,19 +2413,19 @@
       <c r="G2" s="14">
         <v>-1</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>202</v>
+      <c r="H3" s="25" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2448,10 +2433,10 @@
         <v>72</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
@@ -2459,10 +2444,10 @@
         <v>-3</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2499,19 +2484,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>78</v>
@@ -2526,47 +2511,47 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2579,7 +2564,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2599,17 +2584,17 @@
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2622,7 +2607,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2631,13 +2616,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="208">
   <si>
     <t>#</t>
   </si>
@@ -298,14 +298,6 @@
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由题目的已知条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -892,27 +884,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条件index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定理id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由定理推导出来的条件，前提是位置关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由定理推导出来的条件，前提是解代数方程得到的（后面可以设计求前提的方法，这里先默认-3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Chord(Line($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父条件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构图语句、题目条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解代数方程得到的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由定理推导出来的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*(方程组indexes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*(定理前提条件)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -1415,7 +1419,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1443,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1455,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="20"/>
     </row>
@@ -1467,7 +1471,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1479,10 +1483,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,10 +1497,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,7 +1511,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1519,10 +1523,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1530,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1547,10 +1551,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1561,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -1575,7 +1579,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1590,7 +1594,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1601,7 +1605,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>65</v>
@@ -1612,10 +1616,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>65</v>
@@ -1629,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1641,7 +1645,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1653,7 +1657,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1662,13 +1666,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1679,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -1688,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -1705,7 +1709,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -1739,10 +1743,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1753,10 +1757,10 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -1767,10 +1771,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
@@ -1781,10 +1785,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
@@ -1795,10 +1799,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
@@ -1809,10 +1813,10 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1844,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1859,10 +1863,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -1874,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="9"/>
@@ -1887,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>50</v>
@@ -1901,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>51</v>
@@ -1915,7 +1919,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -1929,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>52</v>
@@ -1943,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1967,7 +1971,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -1979,7 +1983,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -1991,10 +1995,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2005,10 +2009,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
@@ -2019,10 +2023,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2033,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2042,13 +2046,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,7 +2063,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -2071,7 +2075,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -2083,7 +2087,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2095,7 +2099,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -2107,7 +2111,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2119,7 +2123,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2128,10 +2132,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D60" s="3"/>
     </row>
@@ -2168,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -2180,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -2192,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -2204,10 +2208,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -2216,10 +2220,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -2228,10 +2232,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -2240,10 +2244,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -2252,13 +2256,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2266,13 +2270,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2280,13 +2284,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2294,13 +2298,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>193</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2308,10 +2312,10 @@
         <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D76" s="3"/>
     </row>
@@ -2326,7 +2330,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -2340,7 +2344,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2360,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2371,7 +2375,7 @@
     <col min="3" max="3" width="10.875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="13"/>
-    <col min="6" max="6" width="18.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64.375" style="26" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
@@ -2379,7 +2383,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2396,16 +2400,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="F2" s="14">
         <v>-1</v>
@@ -2414,37 +2418,37 @@
         <v>-1</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G3" s="14">
         <v>-2</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="22" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="F5" s="24">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="24">
         <v>-3</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>202</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>204</v>
@@ -2484,25 +2488,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
@@ -2511,47 +2515,47 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2564,7 +2568,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2584,17 +2588,17 @@
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2607,7 +2611,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2616,13 +2620,13 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5AB9F6-EEA1-4618-9421-F58A51C0245D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="211">
   <si>
     <t>#</t>
   </si>
@@ -149,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.性质(Attribution)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,22 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Polygon($)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,20 +307,6 @@
   </si>
   <si>
     <t>三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perimeter(Triangle(ABC))
-Perimeter(Circle(O))
-Perimeter(Sector(OAB))
-Perimeter(Quadrilateral(ABCD))
-Perimeter(Polygon($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中定义为
-LengthOfLine(Line(AB))
-LengthOfArc(Arc(AB))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,34 +318,10 @@
   </si>
   <si>
     <t>在logic中定义为
-DegreeOfAngle(Angle(ABC))
-DegreeOfSector(Sector(OAB))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中定义为
 DiameterOfCircle(Circle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在logic中定义为
-PerimeterOfTriangle(Triangle(ABC))
-PerimeterOfCircle(Circle(O))
-PerimeterOfSector(Sector(OAB))
-PerimeterOfQuadrilateral(Quadrilateral(ABCD))
-PerimeterOfPolygon(Polygon($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中定义为
-AreaOfTriangle(Triangle(ABC))
-AreaOfCircle(Circle(O))
-AreaOfSector(Sector(OAB))
-AreaOfQuadrilateral(Quadrilateral(ABCD))
-AreaOfPolygon(Polygon($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多边形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,14 +359,6 @@
   </si>
   <si>
     <t>默认AB=AD, CB=CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
-PointOnLine(Point($),Line($))
-PointOnArc(Point($),Arc($))
-PointOnCircle(Point($),Circle($))
-关系用元组存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -689,16 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Length(Line($))
-Length(Arc($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Degree(Angle(ABC))
-Degree(Sector(OAB))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Radius(Arc($))
 Radius(Circle($))
 Radius(Sector($))</t>
@@ -709,222 +638,449 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Area(Triangle(ABC))
-Area(Circle(O))
+    <t>Add(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cos(Var)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum(Var1,Var2,...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average(Var1,Var2,...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub(Var1,Var2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Literal templates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height(Line($),Triangle($))
+Height(Line($),Trapezoid($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disjoint(Line($),Circle($))
+Disjoint(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midpoint(Point($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumcenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centroid(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthocenter(Point($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel(Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerpendicularBisector(Point($),Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BisectsAngle(Line($),Angle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+DisjointLineCircle(Line($),Circle($))
+DisjointCircleCircle(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+TangentLineCircle(Point($),Line($),Circle($))
+TangentCircleCircle(Point($),Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median(Line($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternallyTangent(Point($),Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contain(Circle($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CircumscribedToTriangle(Circle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InscribedInTriangle(Circle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congruent(Triangle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similar(Triangle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在logic中细分为
+HeightTriangle(Line($),Triangle($))
+HeightTrapezoid(Line($),Trapezoid($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression("text")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没编程实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由其他条件扩展出的条件，没应用定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chord(Line($),Circle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父条件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构图语句、题目条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解代数方程得到的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由定理推导出来的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*(方程组indexes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*(定理前提条件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度(一般属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度(一般属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积(一般属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周长(扩展属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高(扩展属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Length(Line($))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length(Arc($))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在logic中定义为
+LengthOfLine(Line(AB))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LengthOfArc(Arc(AB))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Degree(Angle(ABC))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Degree(Sector(OAB))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在logic中定义为
+DegreeOfAngle(Angle(ABC))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DegreeOfSector(Sector(OAB))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area(Triangle(ABC))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Area(Circle(O))
 Area(Sector(OAB))
 Area(Quadrilateral(ABCD))
 Area(Polygon($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pow(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cos(Var)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum(Var1,Var2,...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average(Var1,Var2,...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Literal templates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height(Line($),Triangle($))
-Height(Line($),Trapezoid($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disjoint(Line($),Circle($))
-Disjoint(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intersect(Point($),Line($),Line($))
-Intersect(Point($), Point($), Line($),Circle($))
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在logic中定义为
+AreaOfTriangle(Triangle(ABC))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AreaOfCircle(Circle(O))
+AreaOfSector(Sector(OAB))
+AreaOfQuadrilateral(Quadrilateral(ABCD))
+AreaOfPolygon(Polygon($))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perimeter(Triangle(ABC))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perimeter(Circle(O))
+Perimeter(Sector(OAB))
+Perimeter(Quadrilateral(ABCD))
+Perimeter(Polygon($))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在logic中定义为
+PerimeterOfTriangle(Triangle(ABC))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PerimeterOfCircle(Circle(O))
+PerimeterOfSector(Sector(OAB))
+PerimeterOfQuadrilateral(Quadrilateral(ABCD))
+PerimeterOfPolygon(Polygon($))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intersect(Point($),Line($),Line($))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intersect(Point($), Point($), Line($),Circle($))
 Intersect(Point($), Point($), Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Midpoint(Point($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circumcenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centroid(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orthocenter(Point($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parallel(Line($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerpendicularBisector(Point($),Line($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BisectsAngle(Line($),Angle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
-DisjointLineCircle(Line($),Circle($))
-DisjointCircleCircle(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
-TangentLineCircle(Point($),Line($),Circle($))
-TangentCircleCircle(Point($),Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Median(Line($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InternallyTangent(Point($),Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contain(Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CircumscribedToTriangle(Circle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InscribedInTriangle(Circle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congruent(Triangle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similar(Triangle($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在logic中细分为
 IntersectLineLine(Point($),Line($),Line($))
-IntersectLineCircle(Point($),Point($),Line($),Circle($))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IntersectLineCircle(Point($),Point($),Line($),Circle($))
 IntersectCircleCircle(Point($),Point($),Circle($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在logic中细分为
-HeightTriangle(Line($),Triangle($))
-HeightTrapezoid(Line($),Trapezoid($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expression("text")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还没编程实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center(Line($),Triangle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PointOn(Point($),Line($))
 PointOn(Point($),Arc($))
-PointOn(Point($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由其他条件扩展出的条件，没应用定理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定理id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chord(Line($),Circle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父条件id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>构图语句、题目条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解代数方程得到的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由定理推导出来的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*(方程组indexes)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*(定理前提条件)</t>
+PointOn(Point($),Circle($))
+Collinear($)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在logic中细分为
+PointOnLine(Point($),Line($))
+PointOnArc(Point($),Arc($))
+PointOnCircle(Point($),Circle($))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（已被Collinear代替）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1150,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1036,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,25 +1217,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1098,17 +1250,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1121,6 +1264,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,31 +1556,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="83.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="95.5" style="7"/>
+    <col min="1" max="1" width="4.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="83.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="95.5" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1459,34 +1614,34 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
+      <c r="C6" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1494,39 +1649,39 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="C8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>89</v>
+      <c r="C9" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1534,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,10 +1706,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1576,150 +1731,150 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C19" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="C23" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1740,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
@@ -1754,605 +1909,611 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>159</v>
+        <v>195</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+        <v>196</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
         <v>6</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
+        <v>7</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C40" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
+      <c r="D47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>9</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>15</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>16</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="22">
+        <v>17</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="22">
+        <v>18</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
+        <v>19</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
+        <v>20</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="22">
+        <v>21</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="22">
+        <v>22</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="22">
+        <v>23</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="22"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>3</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>4</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>5</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>6</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>7</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>8</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>9</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>10</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>11</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>12</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>13</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
-        <v>14</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>15</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>16</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>17</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>18</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>19</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
-        <v>20</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
-        <v>21</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
-        <v>22</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>1</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>2</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>129</v>
+        <v>107</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>162</v>
+        <v>109</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>6</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>164</v>
+        <v>4</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>7</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>165</v>
+        <v>5</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>8</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>9</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>195</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>194</v>
+        <v>112</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>11</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>193</v>
+        <v>9</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
+        <v>10</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>11</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>12</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="B78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>13</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="B79" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>14</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>126</v>
+      <c r="B80" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,97 +2522,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="13"/>
-    <col min="6" max="6" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.375" style="26" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="7.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.375" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="14" t="s">
+      <c r="A1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="F1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="B2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="D2" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="F2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="14">
-        <v>-2</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F4" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="G5" s="10">
         <v>-3</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>204</v>
+      <c r="H5" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2483,159 +2644,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="s">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EBC4B0-F6E2-4C3F-B3B3-977A11488FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76DEC2-8A28-4EB8-8702-DC2A57571BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19035" yWindow="1710" windowWidth="21600" windowHeight="11385" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="304">
   <si>
     <t>#</t>
   </si>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegularTriangle(ABC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,22 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Degree(Angle(ABC), $)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area(Triangle(ABC), $)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perimeter(Triangle(ABC), $)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length(Line(AB), $)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,18 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常识(1-10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助线(11-20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定理(21-$)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nous_1_extend_shape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,10 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drawing_11_connect_two_points</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Altitude(Triangle(ABC), R)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相交的性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,10 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平行线的传递性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垂直的判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内角和为180°、外角等于两内角和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直线、射线、线段；五类线、边、腰、底边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,10 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应边相等、对应角相等、面积相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全等三角形性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,10 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSS、SAS、ASA、AAS、HL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角平分线性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,34 +667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到两端距离相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两底角相等、两边相等、高角平分线中线重合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两底角相等、两边相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个角相等为60°、一个角为60°的等腰▲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个角相等为60°、是等腰▲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾股定理、一个角为90°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾股定理、一个角为90°、30°所对直角边等于斜边的一半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相似三角形性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,14 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应角相等、对应边成比例、周长成比例、面积成平方比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直与平行的组合传递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中位线判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,14 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSS、SAS、AA、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中位线构成的三角形与原三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平行于底边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,18 +699,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中线性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中线判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,6 +728,526 @@
   </si>
   <si>
     <t>面积公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内角和为180°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正弦定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应角相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积成平方比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周长成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应边相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位线构成的三角形与原三角形相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两对角相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个角相等为60°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个角为60°的等腰▲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两底角相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高角平分线中线重合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾股定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多边形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygon(ABC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个角为90°、两直角边垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三边和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底乘高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海伦公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D是BC上一点 BD/DC=AB/AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两夹边之积乘夹角正弦值的一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∥,∥--&gt;∥；∥,⊥--&gt;∥；∥,⊥--&gt;⊥；⊥,⊥--&gt;∥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直与平行的组合推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直于底边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直、平分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到顶点的距离/到边中点的距离=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到三个顶点的距离相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何瑰宝性质2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到三边的距离相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三条边相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两对侧边边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquilateralTriangle(ABC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平分的两角相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到两端点距离相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到两边距离相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape扩展和area相加关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line相加关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle相加关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平角等于180°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24、25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length(Line(AB))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area(Triangle(ABC))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perimeter(Triangle(ABC))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altitude(Triangle(ABC))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.解题目标(target)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equation($)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目条件的logic和embedding形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_21_triangle_property_angle_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_22_right_triangle_pythagorean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_23_right_triangle_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_24_right_triangle_pythagorean_inverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_25_right_triangle_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_26_isosceles_triangle_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_27_isosceles_triangle_property_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_28_isosceles_triangle_property_line_coincidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_29_isosceles_triangle_judgment_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_30_isosceles_triangle_judgment_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_31_equilateral_triangle_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_32_equilateral_triangle_property_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_33_equilateral_triangle_judgment_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_34_equilateral_triangle_judgment_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_35_equilateral_triangle_judgment_isos_and_angle60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_37_parallel_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_38_parallel_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_39_perpendicular_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_40_perpendicular_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_41_parallel_perpendicular_combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_42_perpendicular_bisector_property_perpendicular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_43_perpendicular_bisector_property_bisector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_44_perpendicular_bisector_property_distance_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_45_perpendicular_bisector_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_46_bisector_property_line_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_47_bisector_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_48_bisector_property_distance_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_49_bisector_judgment_line_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_50_bisector_judgment_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_51_altitude_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_52_altitude_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_53_neutrality_property_similar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_54_neutrality_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_55_neutrality_property_line_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_56_neutrality_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_57_circumcenter_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_58_incenter_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_59_centroid_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_60_orthocenter_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_61_congruent_property_line_euqal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_62_congruent_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_63_congruent_property_area_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_69_similar_property_angle_euqal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_70_similar_property_line_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_71_similar_property_perimeter_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_72_similar_property_area_square_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_76_triangle_perimeter_formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_77_triangle_area_formula_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_78_triangle_area_formula_heron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_79_triangle_area_formula_sine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_80_sine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_81_cosine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_36_intersect_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_64_congruent_judgment_sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_65_congruent_judgment_sas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_66_congruent_judgment_asa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_67_congruent_judgment_aas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_68_congruent_judgment_hl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_73_similar_judgment_sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_74_similar_judgment_sas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_75_similar_judgment_aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure(Angle(ABC))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +1255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +1308,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -932,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,29 +1394,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B33:B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1293,12 +1720,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1319,13 +1746,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,22 +1760,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1387,7 +1814,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1401,7 +1828,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,434 +1878,426 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>5</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>15</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>1</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>97</v>
@@ -1886,104 +2305,141 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>9</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>11</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
+        <v>11</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>12</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="C60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>13</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>13</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+    </row>
+    <row r="66" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>14</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1994,508 +2450,1461 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9" style="18"/>
-    <col min="4" max="4" width="7" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
-    <col min="7" max="7" width="7" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="87.375" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="66.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="3">
+        <v>21</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="3">
+        <v>31</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="3">
+        <v>31</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="F37" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="11">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="11">
-        <v>21</v>
-      </c>
-      <c r="H3" s="11" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="F47" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="3">
+        <v>28</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="3">
+        <v>28</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="3">
+        <v>26</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="11">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="G4" s="11">
-        <v>22</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="11">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="G5" s="11">
-        <v>23</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="F70" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="3">
+        <v>26</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="3">
+        <v>43</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="11">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="G6" s="11">
-        <v>24</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="11">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="G7" s="11">
-        <v>25</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="D8" s="11">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="G8" s="11">
-        <v>26</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" s="21" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="11">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="G9" s="11">
-        <v>27</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="D10" s="11">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="G10" s="11">
-        <v>28</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="F78" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="3">
+        <v>41</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="3">
+        <v>42</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="D11" s="11">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="G11" s="11">
-        <v>29</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="D12" s="11">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="G12" s="11">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G13" s="11">
-        <v>31</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G14" s="11">
-        <v>32</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G15" s="11">
-        <v>33</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G16" s="11">
-        <v>34</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G17" s="11">
-        <v>35</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G18" s="11">
-        <v>36</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G19" s="11">
-        <v>37</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G20" s="11">
-        <v>38</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G21" s="11">
-        <v>39</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G22" s="11">
-        <v>40</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G23" s="11">
-        <v>41</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G24" s="11">
-        <v>42</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G25" s="11">
-        <v>43</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G26" s="11">
-        <v>44</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G27" s="11">
-        <v>45</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G28" s="11">
-        <v>46</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G29" s="11">
-        <v>47</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G30" s="11">
-        <v>48</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G31" s="11">
-        <v>49</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G32" s="11">
-        <v>50</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G33" s="11">
-        <v>51</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="11">
-        <v>52</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G35" s="11">
-        <v>53</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G36" s="11">
-        <v>54</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>185</v>
-      </c>
+      <c r="F82" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C83" s="6"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C84" s="6"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C85" s="6"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="6"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="6"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2506,7 +3915,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2523,12 +3932,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="F1" s="10" t="s">
         <v>39</v>
       </c>
@@ -2544,7 +3953,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>44</v>
@@ -2559,40 +3968,40 @@
         <v>-1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="10">
         <v>-2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="10">
         <v>-3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76DEC2-8A28-4EB8-8702-DC2A57571BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F2048-2B7F-4A89-8854-0CD4DBEF1FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19035" yWindow="1710" windowWidth="21600" windowHeight="11385" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="302">
   <si>
     <t>#</t>
   </si>
@@ -963,14 +963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24、25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Length(Line(AB))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1159,10 +1151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_61_congruent_property_line_euqal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>theorem_62_congruent_property_angle_equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,10 +1159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_69_similar_property_angle_euqal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>theorem_70_similar_property_line_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,6 +1232,14 @@
   </si>
   <si>
     <t>Measure(Angle(ABC))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_69_similar_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_61_congruent_property_line_equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,7 +1247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1304,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1412,10 +1412,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1927,7 +1927,7 @@
         <v>106</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1939,7 +1939,7 @@
         <v>107</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -1951,7 +1951,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -1963,7 +1963,7 @@
         <v>109</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1975,7 +1975,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>119</v>
@@ -2402,18 +2402,18 @@
         <v>13</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -2435,12 +2435,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,24 +2450,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="66.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="3" max="3" width="66.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>127</v>
       </c>
@@ -2475,1434 +2474,1317 @@
         <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="3">
-        <v>30</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>242</v>
+      <c r="C22" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="3">
-        <v>21</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>243</v>
+      <c r="C23" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="19" t="s">
-        <v>244</v>
+      <c r="C24" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C25" s="3">
-        <v>22</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>245</v>
+      <c r="C25" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>246</v>
+      <c r="C26" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="3">
-        <v>31</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>247</v>
+      <c r="C27" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="3">
-        <v>31</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>248</v>
+      <c r="C28" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="19" t="s">
-        <v>249</v>
+      <c r="C29" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="19" t="s">
-        <v>250</v>
+      <c r="C30" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="19" t="s">
-        <v>251</v>
+      <c r="C31" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="19" t="s">
-        <v>252</v>
+      <c r="C32" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="19" t="s">
-        <v>253</v>
+      <c r="C33" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="19" t="s">
-        <v>254</v>
+      <c r="C34" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="19" t="s">
-        <v>255</v>
+      <c r="C35" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="19" t="s">
-        <v>256</v>
+      <c r="C36" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="19" t="s">
-        <v>294</v>
+      <c r="C37" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="19" t="s">
-        <v>257</v>
+      <c r="C38" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="19" t="s">
-        <v>258</v>
+      <c r="C39" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="19" t="s">
-        <v>259</v>
+      <c r="C40" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="19" t="s">
-        <v>260</v>
+      <c r="C41" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>261</v>
+      <c r="C42" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F42" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="19" t="s">
-        <v>262</v>
+      <c r="C43" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F43" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="19" t="s">
-        <v>263</v>
+      <c r="C44" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="19" t="s">
-        <v>264</v>
+      <c r="C45" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="19" t="s">
-        <v>265</v>
+      <c r="C46" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="19" t="s">
-        <v>266</v>
+      <c r="C47" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="19" t="s">
-        <v>267</v>
+      <c r="C48" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="19" t="s">
-        <v>268</v>
+      <c r="C49" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="19" t="s">
-        <v>269</v>
+      <c r="C50" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F50" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="19" t="s">
-        <v>270</v>
+      <c r="C51" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="19" t="s">
-        <v>271</v>
+      <c r="C52" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="19" t="s">
-        <v>272</v>
+      <c r="C53" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="19" t="s">
-        <v>273</v>
+      <c r="C54" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="19" t="s">
-        <v>274</v>
+      <c r="C55" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="19" t="s">
-        <v>275</v>
+      <c r="C56" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="19" t="s">
-        <v>276</v>
+      <c r="C57" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="19" t="s">
-        <v>277</v>
+      <c r="C58" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="19" t="s">
-        <v>278</v>
+      <c r="C59" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F59" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="19" t="s">
-        <v>279</v>
+      <c r="C60" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="19" t="s">
-        <v>280</v>
+      <c r="C61" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="3">
-        <v>28</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>281</v>
+      <c r="C62" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="3">
-        <v>28</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>282</v>
+      <c r="C63" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="19" t="s">
-        <v>283</v>
+      <c r="C64" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F64" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="19" t="s">
-        <v>295</v>
+      <c r="C65" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F65" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="19" t="s">
-        <v>296</v>
+      <c r="C66" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F66" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="19" t="s">
-        <v>297</v>
+      <c r="C67" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="19" t="s">
-        <v>298</v>
+      <c r="C68" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="19" t="s">
-        <v>299</v>
+      <c r="C69" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="3">
-        <v>26</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>284</v>
+      <c r="C70" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F70" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="3">
-        <v>26</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>285</v>
+      <c r="C71" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F71" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="19" t="s">
-        <v>286</v>
+      <c r="C72" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F72" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="19" t="s">
-        <v>287</v>
+      <c r="C73" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F73" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="19" t="s">
-        <v>300</v>
+      <c r="C74" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F74" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="19" t="s">
-        <v>301</v>
+      <c r="C75" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="19" t="s">
-        <v>302</v>
+      <c r="C76" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F76" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="3">
-        <v>43</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>288</v>
+      <c r="C77" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F77" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="19" t="s">
-        <v>289</v>
+      <c r="C78" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F78" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="19" t="s">
-        <v>290</v>
+      <c r="C79" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="19" t="s">
-        <v>291</v>
+      <c r="C80" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F80" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C81" s="3">
-        <v>41</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>292</v>
+      <c r="C81" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F81" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="3">
-        <v>42</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>293</v>
+      <c r="C82" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F82" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C83" s="6"/>
-      <c r="D83" s="21"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C83" s="20"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C84" s="6"/>
-      <c r="D84" s="21"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C84" s="20"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C85" s="6"/>
-      <c r="D85" s="21"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C85" s="20"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C86" s="6"/>
-      <c r="D86" s="21"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C86" s="20"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C87" s="6"/>
-      <c r="D87" s="21"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C87" s="20"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F2048-2B7F-4A89-8854-0CD4DBEF1FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB4D968-39ED-4520-A5C9-FB9264B2648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18105" yWindow="2190" windowWidth="21600" windowHeight="11385" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="317">
   <si>
     <t>#</t>
   </si>
@@ -1241,13 +1241,61 @@
   <si>
     <t>theorem_61_congruent_property_line_equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliary_11_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliary_12_</t>
+  </si>
+  <si>
+    <t>auxiliary_13_</t>
+  </si>
+  <si>
+    <t>auxiliary_14_</t>
+  </si>
+  <si>
+    <t>auxiliary_15_</t>
+  </si>
+  <si>
+    <t>auxiliary_16_</t>
+  </si>
+  <si>
+    <t>auxiliary_17_</t>
+  </si>
+  <si>
+    <t>auxiliary_18_</t>
+  </si>
+  <si>
+    <t>auxiliary_19_</t>
+  </si>
+  <si>
+    <t>auxiliary_20_</t>
+  </si>
+  <si>
+    <t>nous_6_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_7_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_8_</t>
+  </si>
+  <si>
+    <t>nous_9_</t>
+  </si>
+  <si>
+    <t>nous_10_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,6 +1365,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1353,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,6 +1479,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1706,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2452,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2565,7 +2624,9 @@
       <c r="B7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>312</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
@@ -2576,7 +2637,9 @@
       <c r="B8" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -2587,7 +2650,9 @@
       <c r="B9" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>314</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
@@ -2598,7 +2663,9 @@
       <c r="B10" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>315</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
@@ -2609,7 +2676,9 @@
       <c r="B11" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
@@ -2620,7 +2689,9 @@
       <c r="B12" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>302</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -2631,7 +2702,9 @@
       <c r="B13" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
@@ -2642,7 +2715,9 @@
       <c r="B14" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
@@ -2653,7 +2728,9 @@
       <c r="B15" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>305</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -2664,7 +2741,9 @@
       <c r="B16" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>306</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -2675,7 +2754,9 @@
       <c r="B17" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>307</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
@@ -2686,7 +2767,9 @@
       <c r="B18" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>308</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
@@ -2697,7 +2780,9 @@
       <c r="B19" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>309</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
@@ -2708,7 +2793,9 @@
       <c r="B20" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
@@ -2719,7 +2806,9 @@
       <c r="B21" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>311</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
@@ -3071,7 +3160,7 @@
       <c r="B42" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="24" t="s">
         <v>259</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3411,7 +3500,7 @@
       <c r="B62" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="21" t="s">
         <v>301</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3428,7 +3517,7 @@
       <c r="B63" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="21" t="s">
         <v>279</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3547,7 +3636,7 @@
       <c r="B70" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="21" t="s">
         <v>300</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -3564,7 +3653,7 @@
       <c r="B71" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="21" t="s">
         <v>281</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3666,7 +3755,7 @@
       <c r="B77" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="21" t="s">
         <v>284</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -3734,7 +3823,7 @@
       <c r="B81" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="21" t="s">
         <v>288</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -3751,7 +3840,7 @@
       <c r="B82" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D82" s="3" t="s">

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB4D968-39ED-4520-A5C9-FB9264B2648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE11BC9-8CD7-4DC6-9850-CAF431085F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18105" yWindow="2190" windowWidth="21600" windowHeight="11385" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18255" yWindow="2295" windowWidth="21600" windowHeight="11385" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="317">
   <si>
     <t>#</t>
   </si>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>构图语句、题目条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解代数方程得到的条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,26 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nous_1_extend_shape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_2_extend_shape_and_area_addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_3_extend_line_addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_4_extend_angle_addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_5_extend_flat_angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,14 +919,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shape扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shape扩展和area相加关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>line相加关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1289,6 +1257,37 @@
   </si>
   <si>
     <t>nous_10_</t>
+  </si>
+  <si>
+    <t>题目条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构图语句扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area相加关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_5_</t>
+  </si>
+  <si>
+    <t>nous_1_area_addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_2_line_addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_3_angle_addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_4_flat_angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1474,14 +1473,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1765,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1779,12 +1778,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1805,13 +1804,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,22 +1818,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1873,7 +1872,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1886,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1937,10 +1936,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1949,20 +1948,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1983,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1995,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2007,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2019,10 +2018,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2031,22 +2030,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2082,7 +2081,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -2130,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2154,7 +2153,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -2163,10 +2162,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -2257,12 +2256,12 @@
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -2289,7 +2288,7 @@
         <v>76</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2303,7 +2302,7 @@
         <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2317,7 +2316,7 @@
         <v>62</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2331,7 +2330,7 @@
         <v>63</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2345,7 +2344,7 @@
         <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2415,7 +2414,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,22 +2460,22 @@
         <v>13</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -2511,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2527,19 +2526,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2547,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -2562,13 +2561,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2577,13 +2576,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2592,13 +2591,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2607,13 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2622,10 +2618,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2635,10 +2631,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2648,10 +2644,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2661,10 +2657,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2674,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2687,10 +2683,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2700,10 +2696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2713,10 +2709,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2726,10 +2722,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2739,10 +2735,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2752,10 +2748,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2765,10 +2761,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2778,10 +2774,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2791,10 +2787,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2804,10 +2800,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2817,16 +2813,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2834,16 +2830,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2851,16 +2847,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2868,16 +2864,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2885,16 +2881,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2902,16 +2898,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2919,16 +2915,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2936,16 +2932,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2953,16 +2949,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2970,16 +2966,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2987,16 +2983,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3004,16 +3000,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3021,16 +3017,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3038,16 +3034,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3055,16 +3051,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3072,16 +3068,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3089,16 +3085,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G38" s="17"/>
     </row>
@@ -3107,16 +3103,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3124,16 +3120,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3141,16 +3137,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,16 +3154,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>259</v>
+        <v>220</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3175,16 +3171,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3192,16 +3188,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3209,16 +3205,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3226,16 +3222,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3243,16 +3239,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>264</v>
+        <v>220</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>256</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3260,16 +3256,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3277,16 +3273,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3294,16 +3290,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3311,16 +3307,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>268</v>
+        <v>220</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3328,16 +3324,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3345,16 +3341,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3362,16 +3358,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3379,16 +3375,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3396,16 +3392,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>273</v>
+        <v>220</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>265</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3413,16 +3409,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>274</v>
+        <v>220</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,16 +3426,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3447,16 +3443,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3464,16 +3460,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3481,16 +3477,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,16 +3494,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3515,16 +3511,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3532,16 +3528,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3549,16 +3545,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3566,16 +3562,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3583,16 +3579,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3600,16 +3596,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3617,16 +3613,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3634,16 +3630,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3651,16 +3647,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3668,16 +3664,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3685,16 +3681,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3702,16 +3698,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3719,16 +3715,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3736,16 +3732,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3753,16 +3749,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3770,16 +3766,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3787,16 +3783,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3804,16 +3800,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3821,16 +3817,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3838,16 +3834,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3883,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -3903,12 +3899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="F1" s="10" t="s">
         <v>39</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>101</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3947,32 +3943,43 @@
         <v>100</v>
       </c>
       <c r="G3" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-2</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="10">
-        <v>-3</v>
+      <c r="G5" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-3</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE11BC9-8CD7-4DC6-9850-CAF431085F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74A792-8802-4C0A-ACB6-C3A0735483C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18255" yWindow="2295" windowWidth="21600" windowHeight="11385" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="325">
   <si>
     <t>#</t>
   </si>
@@ -107,14 +107,6 @@
   </si>
   <si>
     <t>中线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全等的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相似的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -587,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bisector(Line($),Angle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三角形性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,14 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全等三角形性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全等三角形判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角平分线性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,14 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相似三角形性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相似三角形判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中位线判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -847,14 +819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>垂直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到顶点的距离/到边中点的距离=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -899,10 +863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到两边距离相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1043,14 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_42_perpendicular_bisector_property_perpendicular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_43_perpendicular_bisector_property_bisector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>theorem_44_perpendicular_bisector_property_distance_equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,18 +1019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_48_bisector_property_distance_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_49_bisector_judgment_line_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_50_bisector_judgment_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>theorem_51_altitude_property</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1287,6 +1227,98 @@
   </si>
   <si>
     <t>nous_4_flat_angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bisector(Line($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_42_perpendicular_bisector_property_realtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_43_perpendicular_bisector_property_algebra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直、平分 数量关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MirrorCongruent(Triangle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MirrorSimilar(Triangle($),Triangle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像全等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(镜像)全等三角形性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(镜像)全等三角形判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(镜像)相似三角形性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(镜像)相似三角形判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ABC, DEF)，ABC~镜像(DEF)，即ABC~镜像(D‘F'E')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是需注意D‘F'E是不存在的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个角为90°、两直角边垂直、30°所对直角边…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中线性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中线判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平分底边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_48_bisector_judgment_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_49_median_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_50_median_judgment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,14 +1396,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1408,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,13 +1491,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1762,28 +1780,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="58.375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="83.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="95.5" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1804,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1818,22 +1836,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1857,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1869,10 +1887,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1880,13 +1898,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1894,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1911,10 +1929,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,10 +1943,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1936,10 +1954,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1948,33 +1966,33 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1994,10 +2012,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2006,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2018,10 +2036,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2030,22 +2048,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2055,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -2069,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -2078,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -2093,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -2105,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2117,7 +2135,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2129,7 +2147,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2141,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2150,10 +2168,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -2162,10 +2180,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -2177,10 +2195,10 @@
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2191,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,10 +2223,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,10 +2237,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2230,10 +2248,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -2242,162 +2260,162 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>14</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>2</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>9</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>94</v>
@@ -2405,100 +2423,128 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>10</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>125</v>
+        <v>62</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>11</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>12</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
+        <v>12</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>13</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="B63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>14</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>59</v>
+      <c r="B68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A67:D67"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2508,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2526,19 +2572,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2546,13 +2592,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -2561,13 +2607,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2576,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2591,13 +2637,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2606,10 +2652,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2618,10 +2664,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2631,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2644,10 +2690,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2657,10 +2703,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2670,10 +2716,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2683,10 +2729,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2696,10 +2742,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2709,10 +2755,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2722,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2735,10 +2781,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2748,10 +2794,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2761,10 +2807,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2774,10 +2820,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2787,10 +2833,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2800,10 +2846,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2813,16 +2859,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>232</v>
+        <v>210</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2830,16 +2876,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>233</v>
+        <v>210</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2847,16 +2893,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>234</v>
+        <v>210</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>193</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2864,16 +2910,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>235</v>
+        <v>210</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2881,16 +2927,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>236</v>
+        <v>210</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2898,16 +2944,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>237</v>
+        <v>210</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2915,16 +2961,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>238</v>
+        <v>210</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2932,16 +2978,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2949,16 +2995,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2966,16 +3012,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2983,16 +3029,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3000,16 +3046,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3017,16 +3063,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3034,16 +3080,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3051,16 +3097,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3068,16 +3114,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3085,16 +3131,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G38" s="17"/>
     </row>
@@ -3103,16 +3149,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,16 +3166,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>249</v>
+        <v>210</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3137,16 +3183,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3154,16 +3200,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>251</v>
+        <v>210</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3171,16 +3217,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3188,16 +3234,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3205,16 +3251,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3222,16 +3268,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3239,16 +3285,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>256</v>
+        <v>210</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3256,16 +3302,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>257</v>
+        <v>210</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3273,16 +3319,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>258</v>
+        <v>210</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3290,16 +3336,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3307,16 +3353,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>260</v>
+        <v>210</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3324,16 +3370,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3341,16 +3387,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>262</v>
+        <v>210</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,16 +3404,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,16 +3421,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3392,16 +3438,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>265</v>
+        <v>210</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3409,16 +3455,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>266</v>
+        <v>210</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3426,16 +3472,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,16 +3489,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3460,16 +3506,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,16 +3523,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,16 +3540,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>293</v>
+        <v>210</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3511,16 +3557,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>271</v>
+        <v>210</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3528,16 +3574,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3545,16 +3591,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3562,16 +3608,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3579,16 +3625,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3596,16 +3642,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3613,16 +3659,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3630,16 +3676,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>292</v>
+        <v>210</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3647,16 +3693,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>273</v>
+        <v>210</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,16 +3710,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,16 +3727,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3698,16 +3744,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3715,16 +3761,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3732,16 +3778,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>290</v>
+        <v>210</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3749,16 +3795,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>276</v>
+        <v>210</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,16 +3812,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>277</v>
+        <v>210</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3783,16 +3829,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3800,16 +3846,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3817,16 +3863,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>280</v>
+        <v>210</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,42 +3880,17 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>281</v>
+        <v>210</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C83" s="20"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C84" s="20"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C85" s="20"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C86" s="20"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C87" s="20"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3899,34 +3920,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="F1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="10">
         <v>-1</v>
@@ -3935,51 +3956,51 @@
         <v>-1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="10">
         <v>-1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="10">
         <v>-2</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F6" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="10">
         <v>-3</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74A792-8802-4C0A-ACB6-C3A0735483C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BADC5-9A0F-42D0-A4F1-D78581231282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="330">
   <si>
     <t>#</t>
   </si>
@@ -815,10 +815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>垂直、平分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到顶点的距离/到边中点的距离=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1182,10 +1178,6 @@
     <t>auxiliary_20_</t>
   </si>
   <si>
-    <t>nous_6_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nous_7_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1211,9 +1203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nous_5_</t>
-  </si>
-  <si>
     <t>nous_1_area_addition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1234,18 +1223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_42_perpendicular_bisector_property_realtion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_43_perpendicular_bisector_property_algebra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直、平分 数量关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1319,6 +1296,50 @@
   </si>
   <si>
     <t>theorem_50_median_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line1为被平分线  line2为垂直平分线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_42_midpoint_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_43_midpoint_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中点性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中点判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平分两边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直、平分（只需关系推导  先调用40、43）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_5_intersect_extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_6_perpendicular_extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共线 + 共线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直 + 共线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1782,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1957,7 +1978,7 @@
         <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2003,7 +2024,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -2015,7 +2036,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2027,7 +2048,7 @@
         <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2039,7 +2060,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2051,7 +2072,7 @@
         <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>116</v>
@@ -2137,7 +2158,9 @@
       <c r="C34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -2147,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2248,7 +2271,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>89</v>
@@ -2260,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>90</v>
@@ -2272,13 +2295,13 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2286,13 +2309,13 @@
         <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2506,18 +2529,18 @@
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2556,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2567,7 +2590,8 @@
     <col min="3" max="3" width="66.625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="14"/>
+    <col min="6" max="6" width="59.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2575,10 +2599,10 @@
         <v>124</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>126</v>
@@ -2592,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -2607,13 +2631,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2622,13 +2646,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2637,13 +2661,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2652,35 +2676,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2690,10 +2718,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2703,10 +2731,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2716,10 +2744,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2729,10 +2757,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2742,10 +2770,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2755,10 +2783,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2768,10 +2796,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2781,10 +2809,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2794,10 +2822,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2807,10 +2835,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2820,10 +2848,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2833,10 +2861,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2846,10 +2874,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2859,10 +2887,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>136</v>
@@ -2876,10 +2904,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>139</v>
@@ -2893,16 +2921,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2910,10 +2938,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>140</v>
@@ -2927,10 +2955,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>140</v>
@@ -2944,10 +2972,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>141</v>
@@ -2961,10 +2989,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>141</v>
@@ -2978,10 +3006,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>141</v>
@@ -2995,10 +3023,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>142</v>
@@ -3012,10 +3040,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>142</v>
@@ -3029,10 +3057,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>143</v>
@@ -3046,16 +3074,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3063,10 +3091,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>144</v>
@@ -3080,16 +3108,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3097,10 +3125,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>144</v>
@@ -3114,10 +3142,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>128</v>
@@ -3131,10 +3159,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>132</v>
@@ -3149,10 +3177,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>130</v>
@@ -3166,10 +3194,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>134</v>
@@ -3183,10 +3211,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>133</v>
@@ -3200,10 +3228,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>193</v>
@@ -3217,16 +3245,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>151</v>
+        <v>322</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3234,16 +3262,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3251,16 +3279,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3268,16 +3296,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3285,10 +3313,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>145</v>
@@ -3302,16 +3330,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3319,16 +3347,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3336,16 +3364,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3353,16 +3381,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3370,10 +3398,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>153</v>
@@ -3387,10 +3415,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>154</v>
@@ -3404,10 +3432,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>148</v>
@@ -3421,10 +3449,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>148</v>
@@ -3438,16 +3466,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,10 +3483,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>147</v>
@@ -3472,16 +3500,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3489,16 +3517,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3506,16 +3534,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3523,16 +3551,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3540,13 +3568,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>174</v>
@@ -3557,13 +3585,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>167</v>
@@ -3574,13 +3602,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>175</v>
@@ -3591,13 +3619,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>164</v>
@@ -3608,13 +3636,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>269</v>
+        <v>209</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>268</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>165</v>
@@ -3625,13 +3653,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>172</v>
@@ -3642,13 +3670,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>173</v>
@@ -3659,13 +3687,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>171</v>
@@ -3676,13 +3704,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>167</v>
@@ -3693,13 +3721,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>170</v>
@@ -3710,13 +3738,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>169</v>
@@ -3727,13 +3755,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>168</v>
@@ -3744,13 +3772,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>164</v>
@@ -3761,13 +3789,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>165</v>
@@ -3778,13 +3806,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>166</v>
@@ -3795,10 +3823,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>159</v>
@@ -3812,10 +3840,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>160</v>
@@ -3829,10 +3857,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>160</v>
@@ -3846,10 +3874,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>160</v>
@@ -3863,16 +3891,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3880,21 +3908,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3903,7 +3932,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -3956,7 +3985,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3967,7 +3996,7 @@
         <v>-1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BADC5-9A0F-42D0-A4F1-D78581231282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CDD9B8-39F1-4E58-A65E-D50B5B534977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="338">
   <si>
     <t>#</t>
   </si>
@@ -571,10 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>垂直的性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角=90°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -923,74 +919,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_22_right_triangle_pythagorean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_23_right_triangle_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_24_right_triangle_pythagorean_inverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_25_right_triangle_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_26_isosceles_triangle_property_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_27_isosceles_triangle_property_side_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_28_isosceles_triangle_property_line_coincidence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_29_isosceles_triangle_judgment_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_30_isosceles_triangle_judgment_side_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_31_equilateral_triangle_property_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_32_equilateral_triangle_property_side_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_33_equilateral_triangle_judgment_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_34_equilateral_triangle_judgment_side_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_35_equilateral_triangle_judgment_isos_and_angle60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_37_parallel_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_38_parallel_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_39_perpendicular_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>theorem_40_perpendicular_judgment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,154 +927,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_44_perpendicular_bisector_property_distance_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_45_perpendicular_bisector_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_46_bisector_property_line_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_47_bisector_property_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_51_altitude_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_52_altitude_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_53_neutrality_property_similar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_54_neutrality_property_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_55_neutrality_property_line_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_56_neutrality_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_57_circumcenter_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_58_incenter_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_59_centroid_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_60_orthocenter_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_62_congruent_property_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_63_congruent_property_area_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_70_similar_property_line_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_71_similar_property_perimeter_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_72_similar_property_area_square_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_76_triangle_perimeter_formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_77_triangle_area_formula_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_78_triangle_area_formula_heron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_79_triangle_area_formula_sine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_80_sine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_81_cosine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_36_intersect_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_64_congruent_judgment_sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_65_congruent_judgment_sas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_66_congruent_judgment_asa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_67_congruent_judgment_aas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_68_congruent_judgment_hl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_73_similar_judgment_sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_74_similar_judgment_sas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_75_similar_judgment_aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Measure(Angle(ABC))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_69_similar_property_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_61_congruent_property_line_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auxiliary_11_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1271,10 +1055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个角为90°、两直角边垂直、30°所对直角边…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中线性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1287,34 +1067,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_48_bisector_judgment_angle_equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_49_median_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_50_median_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>line1为被平分线  line2为垂直平分线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theorem_42_midpoint_property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_43_midpoint_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中点性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中点判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1340,6 +1096,282 @@
   </si>
   <si>
     <t>垂直 + 共线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相交扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumcenter(Point($),Triangle($), Points($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_23_right_triangle_property_rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_24_right_triangle_property_opposite_side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30°所对直角边…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_26_right_triangle_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_27_isosceles_triangle_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_28_isosceles_triangle_property_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_29_isosceles_triangle_property_line_coincidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_30_isosceles_triangle_judgment_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_31_isosceles_triangle_judgment_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_32_equilateral_triangle_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_33_equilateral_triangle_property_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_34_equilateral_triangle_judgment_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_35_equilateral_triangle_judgment_side_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_36_equilateral_triangle_judgment_isos_and_angle60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_37_intersect_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_38_parallel_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_39_parallel_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_42_midpoint_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_43_perpendicular_bisector_property_distance_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_44_perpendicular_bisector_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_45_bisector_property_line_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_46_bisector_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_47_bisector_judgment_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_48_median_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_49_median_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_50_altitude_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_51_altitude_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_52_neutrality_property_similar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_53_neutrality_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_54_neutrality_property_line_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_55_neutrality_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中线交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_64_congruent_property_line_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_65_congruent_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_66_congruent_property_area_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_67_congruent_judgment_sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_68_congruent_judgment_sas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_69_congruent_judgment_asa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_70_congruent_judgment_aas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_71_congruent_judgment_hl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_72_similar_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_73_similar_property_line_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_74_similar_property_perimeter_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_75_similar_property_area_square_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_76_similar_judgment_sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_77_similar_judgment_sas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_78_similar_judgment_aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_79_triangle_perimeter_formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_80_triangle_area_formula_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_81_triangle_area_formula_heron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_82_triangle_area_formula_sine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_83_sine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_84_cosine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_56_circumcenter_property_line_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_58_incenter_property_line_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_60_centroid_property_line_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_62_orthocenter_property_line_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_57_circumcenter_property_intersect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_59_incenter_property_intersect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_61_centroid_property_intersect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_63_orthocenter_property_intersect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_25_pythagorean_inverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_22_pythagorean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾股定理逆定理，直角三角形判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,7 +1379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,23 +1426,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1453,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1485,34 +1500,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1520,6 +1517,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="B30:C30"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1817,12 +1823,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1867,12 +1873,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1911,7 +1917,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,7 +1931,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1978,7 +1984,7 @@
         <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1987,20 +1993,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2024,7 +2030,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -2036,7 +2042,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2048,7 +2054,7 @@
         <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2060,7 +2066,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2072,19 +2078,19 @@
         <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2136,7 +2142,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -2148,7 +2154,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -2159,10 +2165,10 @@
         <v>87</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>6</v>
       </c>
@@ -2170,11 +2176,11 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>7</v>
       </c>
@@ -2186,7 +2192,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>8</v>
       </c>
@@ -2198,7 +2204,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>9</v>
       </c>
@@ -2206,11 +2212,11 @@
         <v>108</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>10</v>
       </c>
@@ -2223,8 +2229,11 @@
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>11</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>12</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>13</v>
       </c>
@@ -2266,71 +2275,71 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -2529,22 +2538,22 @@
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="A67" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -2577,1348 +2586,1751 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="D39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="D40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="D41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>240</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="F42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>56</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>59</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>62</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>65</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>67</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>68</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>69</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>70</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>71</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>72</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>73</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>74</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>75</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>76</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>77</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>78</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D79" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>79</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>80</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>81</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>82</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
-        <v>45</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>83</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="11">
-        <v>47</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="11">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="11">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="11">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
-        <v>58</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
-        <v>59</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
-        <v>60</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="11">
-        <v>61</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
-        <v>62</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
-        <v>64</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
-        <v>65</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
-        <v>66</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
-        <v>67</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
-        <v>68</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="11">
-        <v>70</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="11">
-        <v>71</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="11">
-        <v>72</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="11">
-        <v>73</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
-        <v>74</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="11">
-        <v>75</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="11">
-        <v>76</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="11">
-        <v>77</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
-        <v>78</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
-        <v>79</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="11">
-        <v>80</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>84</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="11">
-        <v>81</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="F85" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="19"/>
+      <c r="C86" s="6"/>
+      <c r="G86" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3944,24 +4356,24 @@
     <col min="5" max="5" width="9" style="9"/>
     <col min="6" max="6" width="22" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="64.375" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="F1" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3984,8 +4396,8 @@
       <c r="G2" s="10">
         <v>-1</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>292</v>
+      <c r="H2" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3995,8 +4407,8 @@
       <c r="G3" s="10">
         <v>-1</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>293</v>
+      <c r="H3" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4006,7 +4418,7 @@
       <c r="G4" s="10">
         <v>-2</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4017,7 +4429,7 @@
       <c r="G5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4028,7 +4440,7 @@
       <c r="G6" s="10">
         <v>-3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>99</v>
       </c>
     </row>

--- a/GeoMechanical/doc/formal_language v1.0.xlsx
+++ b/GeoMechanical/doc/formal_language v1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CDD9B8-39F1-4E58-A65E-D50B5B534977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB37A93B-4EC2-41E7-B5E6-BE42DC8A043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="338">
   <si>
     <t>#</t>
   </si>
@@ -979,10 +979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>构图语句扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>area相加关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,10 +995,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nous_4_flat_angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bisector(Line($),Triangle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1083,14 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nous_5_intersect_extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_6_perpendicular_extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共线 + 共线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1372,6 +1356,22 @@
   </si>
   <si>
     <t>勾股定理逆定理，直角三角形判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角平分线交点、平分角(数量关系)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_4_intersect_extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_5_perpendicular_extend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1468,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1512,20 +1512,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1809,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1823,12 +1820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1873,12 +1870,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2001,12 +1998,12 @@
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2085,12 +2082,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2165,7 +2162,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,7 +2173,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2230,7 +2227,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>89</v>
@@ -2292,7 +2289,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>90</v>
@@ -2304,13 +2301,13 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,13 +2315,13 @@
         <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2334,12 +2331,12 @@
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -2548,12 +2545,12 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -2588,15 +2585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.75" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.25" style="6" bestFit="1" customWidth="1"/>
@@ -2606,7 +2603,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>124</v>
@@ -2635,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2654,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>206</v>
@@ -2673,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>206</v>
@@ -2692,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>206</v>
@@ -2711,16 +2708,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2732,16 +2729,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -2823,7 +2820,7 @@
       <c r="C12" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E12" s="3"/>
@@ -2840,7 +2837,7 @@
       <c r="C13" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E13" s="3"/>
@@ -2857,7 +2854,7 @@
       <c r="C14" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E14" s="3"/>
@@ -2874,7 +2871,7 @@
       <c r="C15" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E15" s="3"/>
@@ -2891,7 +2888,7 @@
       <c r="C16" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="3"/>
@@ -2908,7 +2905,7 @@
       <c r="C17" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E17" s="3"/>
@@ -2925,7 +2922,7 @@
       <c r="C18" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E18" s="3"/>
@@ -2942,7 +2939,7 @@
       <c r="C19" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E19" s="3"/>
@@ -2959,7 +2956,7 @@
       <c r="C20" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E20" s="3"/>
@@ -2976,7 +2973,7 @@
       <c r="C21" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E21" s="3"/>
@@ -3012,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>208</v>
@@ -3033,7 +3030,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>208</v>
@@ -3054,7 +3051,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>208</v>
@@ -3063,7 +3060,7 @@
         <v>138</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -3075,7 +3072,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>208</v>
@@ -3084,7 +3081,7 @@
         <v>139</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -3096,7 +3093,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>208</v>
@@ -3117,7 +3114,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>208</v>
@@ -3138,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>208</v>
@@ -3158,8 +3155,8 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>279</v>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>208</v>
@@ -3180,7 +3177,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>208</v>
@@ -3201,7 +3198,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>208</v>
@@ -3222,7 +3219,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>208</v>
@@ -3243,7 +3240,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>208</v>
@@ -3264,7 +3261,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>208</v>
@@ -3285,7 +3282,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>208</v>
@@ -3306,7 +3303,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>208</v>
@@ -3327,7 +3324,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>208</v>
@@ -3348,7 +3345,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>208</v>
@@ -3370,7 +3367,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>208</v>
@@ -3433,16 +3430,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -3454,7 +3451,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>208</v>
@@ -3475,7 +3472,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>208</v>
@@ -3484,7 +3481,7 @@
         <v>151</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -3496,7 +3493,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>208</v>
@@ -3517,7 +3514,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>208</v>
@@ -3538,7 +3535,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>208</v>
@@ -3559,16 +3556,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -3580,16 +3577,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -3601,7 +3598,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>208</v>
@@ -3622,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>208</v>
@@ -3643,7 +3640,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>208</v>
@@ -3664,7 +3661,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>208</v>
@@ -3685,7 +3682,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>208</v>
@@ -3706,7 +3703,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>208</v>
@@ -3727,7 +3724,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>208</v>
@@ -3748,7 +3745,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>208</v>
@@ -3769,7 +3766,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>208</v>
@@ -3790,7 +3787,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>208</v>
@@ -3799,7 +3796,7 @@
         <v>155</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="G60" s="3"/>
     </row>
@@ -3811,7 +3808,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>208</v>
@@ -3832,7 +3829,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>208</v>
@@ -3841,7 +3838,7 @@
         <v>156</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3"/>
     </row>
@@ -3853,7 +3850,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>208</v>
@@ -3874,7 +3871,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>208</v>
@@ -3883,9 +3880,8 @@
         <v>157</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G64" s="18"/>
+        <v>301</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
@@ -3895,13 +3891,13 @@
         <v>64</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>173</v>
@@ -3915,13 +3911,13 @@
         <v>65</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>166</v>
@@ -3936,13 +3932,13 @@
         <v>66</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>174</v>
@@ -3957,13 +3953,13 @@
         <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>163</v>
@@ -3978,13 +3974,13 @@
         <v>68</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>164</v>
@@ -3999,13 +3995,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>171</v>
@@ -4020,13 +4016,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>172</v>
@@ -4041,13 +4037,13 @@
         <v>71</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>170</v>
@@ -4062,13 +4058,13 @@
         <v>72</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>166</v>
@@ -4083,13 +4079,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>169</v>
@@ -4104,13 +4100,13 @@
         <v>74</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>168</v>
@@ -4125,13 +4121,13 @@
         <v>75</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>167</v>
@@ -4146,13 +4142,13 @@
         <v>76</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>163</v>
@@ -4167,13 +4163,13 @@
         <v>77</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>164</v>
@@ -4188,13 +4184,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>165</v>
@@ -4209,7 +4205,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>208</v>
@@ -4230,7 +4226,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>208</v>
@@ -4250,8 +4246,8 @@
       <c r="B82" s="3">
         <v>81</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>323</v>
+      <c r="C82" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>208</v>
@@ -4271,8 +4267,8 @@
       <c r="B83" s="3">
         <v>82</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>324</v>
+      <c r="C83" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>208</v>
@@ -4293,7 +4289,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>208</v>
@@ -4314,7 +4310,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>208</v>
@@ -4328,7 +4324,7 @@
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="19"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="6"/>
       <c r="G86" s="3"/>
     </row>
@@ -4341,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -4361,12 +4357,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="F1" s="10" t="s">
         <v>37</v>
       </c>
@@ -4405,42 +4401,31 @@
         <v>98</v>
       </c>
       <c r="G3" s="10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-2</v>
+        <v>102</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-3</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-3</v>
-      </c>
-      <c r="H6" s="11" t="s">
         <v>99</v>
       </c>
     </row>
